--- a/cypress/e2e/Reports/BalanceChecker/Topup_Balance.xlsx
+++ b/cypress/e2e/Reports/BalanceChecker/Topup_Balance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\PAYSTAGE-AUTOMATION\cypress\e2e\Reports\BalanceChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F00DBE-DF48-4756-ABA5-D065C3897ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21304CA8-75EF-4BAE-BE05-AA2C6107BF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOPUP BALANCE" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:J965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cypress/e2e/Reports/BalanceChecker/Topup_Balance.xlsx
+++ b/cypress/e2e/Reports/BalanceChecker/Topup_Balance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\PAYSTAGE-AUTOMATION\cypress\e2e\Reports\BalanceChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F00DBE-DF48-4756-ABA5-D065C3897ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2098A540-3430-4702-8F3B-2EA70373FFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOPUP BALANCE" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:J965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cypress/e2e/Reports/BalanceChecker/Topup_Balance.xlsx
+++ b/cypress/e2e/Reports/BalanceChecker/Topup_Balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\PAYSTAGE-AUTOMATION\cypress\e2e\Reports\BalanceChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2098A540-3430-4702-8F3B-2EA70373FFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7BAB2D-EA86-48E5-9268-A0B7B7C6914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:J965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
